--- a/assets/initConfigFile/catalog.xlsx
+++ b/assets/initConfigFile/catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22700" yWindow="6580" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="4840" yWindow="1100" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>养生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,7 +108,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>热门app推荐</t>
+    <t>国外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,11 +124,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导航链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国外</t>
+    <t>热门APP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +191,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,15 +201,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,178 +518,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="43" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="43" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" ht="43" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:2" ht="43" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:2" ht="43" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:2" ht="43" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:2" ht="43" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:2" ht="43" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:2" ht="43" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:2" ht="43" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:2" ht="43" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:2" ht="43" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:2" ht="43" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:2" ht="43" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:2" ht="43" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:2" ht="43" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" ht="43" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" ht="43" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" ht="43" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/assets/initConfigFile/catalog.xlsx
+++ b/assets/initConfigFile/catalog.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\丰泽\repo\even-more-passport\assets\initConfigFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="1100" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="4845" yWindow="1095" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +130,10 @@
   </si>
   <si>
     <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,15 +239,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,19 +525,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43" customHeight="1">
+    <row r="1" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43" customHeight="1">
+    <row r="2" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43" customHeight="1">
+    <row r="3" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -552,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43" customHeight="1">
+    <row r="4" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43" customHeight="1">
+    <row r="5" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43" customHeight="1">
+    <row r="6" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -576,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43" customHeight="1">
+    <row r="7" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43" customHeight="1">
+    <row r="8" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -592,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43" customHeight="1">
+    <row r="9" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43" customHeight="1">
+    <row r="10" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,7 +617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43" customHeight="1">
+    <row r="11" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -616,7 +625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43" customHeight="1">
+    <row r="12" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -624,7 +633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="43" customHeight="1">
+    <row r="13" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -632,7 +641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43" customHeight="1">
+    <row r="14" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43" customHeight="1">
+    <row r="15" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,7 +657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43" customHeight="1">
+    <row r="16" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -656,7 +665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="43" customHeight="1">
+    <row r="17" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -664,7 +673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="43" customHeight="1">
+    <row r="18" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -672,7 +681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="43" customHeight="1">
+    <row r="19" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -680,7 +689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="43" customHeight="1">
+    <row r="20" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -688,12 +697,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="43" customHeight="1">
+    <row r="21" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/assets/initConfigFile/catalog.xlsx
+++ b/assets/initConfigFile/catalog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>热门APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -705,14 +701,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
